--- a/opendata-crawler/testOutput.xlsx
+++ b/opendata-crawler/testOutput.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,64 +424,64 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>데이터 제목</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>상세설명</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>바로가기 링크</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>고용노동부</t>
+          <t>제공기관</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>수정일</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>조회수</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>다운로드</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>주기성 데이터</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>키워드</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_신규화학물질</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,44 +491,44 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>화학물질,유해성,위험성</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_근로자 건강센터 현황</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -538,44 +538,44 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>943</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>건강센터,건강지원센터,센터</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_건설재해예방전문지도기관</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -585,44 +585,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1836</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>건설안전,기술지도,건설재해예방</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -632,27 +627,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>608</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>모성보호,유연근로,일가정양립</t>
         </is>
       </c>
     </row>
@@ -706,17 +701,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_신규화학물질</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -726,44 +721,44 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>화학물질,유해성,위험성</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_근로자 건강센터 현황</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -773,44 +768,44 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>943</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>건강센터,건강지원센터,센터</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_건설재해예방전문지도기관</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -820,44 +815,39 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1836</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>건설안전,기술지도,건설재해예방</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -867,27 +857,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>608</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>모성보호,유연근로,일가정양립</t>
         </is>
       </c>
     </row>
@@ -941,17 +931,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_신규화학물질</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -961,44 +951,44 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>화학물질,유해성,위험성</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_근로자 건강센터 현황</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1008,44 +998,44 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>943</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>건강센터,건강지원센터,센터</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_건설재해예방전문지도기관</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1055,44 +1045,39 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1836</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>건설안전,기술지도,건설재해예방</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1102,27 +1087,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>608</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>모성보호,유연근로,일가정양립</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1161,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_신규화학물질</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1196,72 +1181,3428 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>화학물질,유해성,위험성</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>고용노동부_사업체노동력조사</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://www.data.go.kr/data/3038232/fileData.do</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>고용노동부</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>4879</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>1836</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>근로자수,빈일자리수,임금</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>고용노동부_신규화학물질</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>화학물질,유해성,위험성</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>건강센터,건강지원센터,센터</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>고용노동부_건설재해예방전문지도기관</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>건설안전,기술지도,건설재해예방</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>모성보호,유연근로,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>고용노동부_사업체노동력조사</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>근로자수,빈일자리수,임금</t>
         </is>

--- a/opendata-crawler/testOutput.xlsx
+++ b/opendata-crawler/testOutput.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_안전관리전문기관 지정 현황</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>ㅇ(주요내용) 산업안전보건법에 따라 사업장 안전관리 업무를 위탁받을 수 있는 안전관리전문기관의 지정 현황 - (항목) 연번, 기관명, 주소명, 전화번호, 지정관서</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15105994/fileData.do</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,39 +496,39 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>859</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>496</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>안전관리,산업안전,지정</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_신규화학물질</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -538,44 +538,44 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>1415</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>화학물질,유해성,위험성</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_근로자 건강센터 현황</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -590,34 +590,39 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>3061</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>건강센터,건강지원센터,센터</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_건설재해예방전문지도기관</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -627,44 +632,39 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>608</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>건설안전,기술지도,건설재해예방</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_일가정양립실태조사 보고서</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -674,44 +674,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>613</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>모성보호,유연근로,일가정양립</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_사업체노동력조사</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -721,44 +721,44 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>4890</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>근로자수,빈일자리수,임금</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_국민취업지원제도 결혼이민자 유형 참여자 현황</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>우리 부에서 지원하는 국민취업지원제도(구 취업성공패키지)에 참여한 결혼이민자 인원수를 2010년부터 연도별로 제공(기준은 매년 12월 31일).2021년 1월1일부터는 취업성공패키지의 신규 참여가 중단되고 국민취업지원제도로 참여 가능.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15042575/fileData.do</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -768,44 +768,44 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>2241</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>저소득층,국비</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_직업안정기관 설치현황</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>매년 공표되는 직업안정기관 설치 현황- 연번, 청(지청), 센터명, 관할구역, 소재지(도로명), 대표전화- * "고용복지센터"는 5명 내외 소규모 센터로 국민취업지원제도 업무 수행</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068740/fileData.do</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -815,39 +815,44 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>직업안정,직업안정기관,설치현황</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_공인노무사</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>매년 공표되는 공인노무사 자격시험 현황- 회차, 접수, 응시(A), 1차 합격자, 2차 합격자, 3차 합격자(B), 합격률(B/A,단위:%)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068747/fileData.do</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -857,44 +862,44 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>557</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>노무사,자격시험,노무사시험</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_일자리창출 유공자 포상 현황</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 공표되는 일자리창출 유공자 포상 현황- 2022-12-12 현황- 연번, 수여일자, 훈격, 유공분야, 소속, 직책, 성명</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068745/fileData.do</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -904,44 +909,44 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>534</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>일자리창출,유공자,유공자</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_고용노동관련 법령 내용</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>최근 제개정된 고용노동부 법령으로서 고용노동 행정업무와 관련된 법령의 내용 자료입니다. * 항목명 : (순번, 법령명, 조문명)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15072614/fileData.do</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -951,44 +956,44 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>631</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>고용노동,법령,법령내용</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부 (노동통계)지역별사업체노동력조사</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>시/군/구별 사업체의 전체종사자, 빈 일자리수, 빈 일자리율, 입직자, 입직률, 이직자, 이직률 등에 관한 사항을 제공</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/3069922/fileData.do</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -998,17 +1003,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>6746</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1018,24 +1023,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>지역,종사자,노동이동</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_고용노동관련 법령 매핑</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>국민들에게 편의성 있는 데이터를 제공하고자 주기성 데이터로서 기공개된 데이터인 고용노동부 소관부서별 법령 현황 데이터로 공개정보를 변경합니다.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15072609/fileData.do</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1045,39 +1050,44 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>고용노동,법령매핑,신구매핑</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_고용노동관련 법령</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>고용노동부에서 발생하는 행정업무와 관련되는 법령에 대한 정보 순으로 정리해둔 CSV파일입니다. * 항목 : 번호,법령명,공포번호,공포일자,시행일자</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15072607/fileData.do</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1087,44 +1097,44 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>627</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>고용노동,법령,법정보</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_연두_업무보고</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>ㅁ고용노동부 연두업무보고 ㅇ등록예정일: 매년 3월말 ㅇ주요내용: 고용노동부 연간 업무계획 보고 - 추진성과 및 평가, 업무추진 여건 및 방향, 추진과제, 정책 및 제도 변경내용 등으로 내용 구성</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15105972/fileData.do</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1134,44 +1144,44 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>199</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>188</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>고용,노동,업무보고</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부 고용서비스우수기관 현황</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>한국고용정보원이 취업소개 또는 취업정보 제공 등의 방법으로 구인자 및 구직자에 대한 고용서비스 향상에 기여한 민간고용서비스기관의 신청을 받아 심사하여 고용서비스우수기관으로 인증</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15028034/fileData.do</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1181,44 +1191,44 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>771</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>고용서비스</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부 (노동통계)사업체노동력조사</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 제공-고용노동부문, 근로실태부문, 계절조정지수 등으로 나누어 자료 제공</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/3069910/fileData.do</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1228,44 +1238,44 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>6735</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>임금,근로시간,근로자수</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_고객상담센터 운영 실적</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>ㅇ매년 고객상담센터에서 처리하는 전화상담, 인터넷 상담, 스마트폰 상담 처리 건수 - 전화통계(2018년~2022년), 인터넷통계(2018년 ~ 2022년), 스마트폰통계(2018년~2022년)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15105916/fileData.do</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1275,39 +1285,44 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>전화상담,인터넷,스마트폰</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_중대재해 발생이 규모별 동종업종 평균재해율 이상인 사업장</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>17년 부터 20년도 까지의 중대재해 발생이 규모별 동종업종 평균재해율 이상인 사업장- 연도, 지역, 업종명, 규모, 사업장명(현장명), 소재지, 중대재해자수(명), 근로자수(명), 재해자수(명), 재해율(%), 규모별 동종 업종 평균 재해율(%)- 율 표기 : 재해율(%),규모별 동종 업종 평균 재해율(%)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15090150/fileData.do</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1317,44 +1332,44 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>776</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>중대재해,사업장명,평균</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_한권으로 통하는 고용노동정책</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>ㅁ 한권으로 통하는 고용노동정책(고용노동부 정기간행물) ㅇ 등록예정일 : 매년 2.28.(2월말) ㅇ 설명 : 매년 업무계획에 따라 고용노동부 사업 및 제도의 개요 등을 정리하여, 2월말까지 발간 ※ 발간 일정은 상황에 따라 조정 가능 ㅇ 주요내용 - 노사관계, 노사협력 - 산재보험제도, 고용보험제도 - 청년 취업, 여성 재취업 지원, 신중년 고용안정, 장애인 취업기회 확대, 외국인 노동시장 조화</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15067439/fileData.do</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1364,44 +1379,44 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3058</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>356</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>한권으로,통하는,고용노동정책</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_특수건강진단기관 지정현황</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>매년 공표되는 특수건강진단기관 지정현황산업보건과에서 게시한 산업안전보건법 제135조 및 같은법 시행규칙 제211조 따라 지정받은 특수건강진단 기관 현황입니다.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068767/fileData.do</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1411,44 +1426,44 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>2287</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>717</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>특수,건강진단,지정현황</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_산업재해 중대산업사고 발생 사업장</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>18~20년 중대산업사고 발생 사업장 공표, 원도급업체와 동일한 장소에서 작업하는 경우 산업안전보건법 위반으로 처벌받은 원도급업체와 하도급업체의 사업장명을 함께 공표</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15090011/fileData.do</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1458,44 +1473,44 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>2195</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>1744</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>산업재해,중대산업사고,사업장</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_소관 비영리법인 현황</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>고용노동부에 관리하는 소관 비영리법인 현황 자료로서 연단위로 현행화비영리법인명, 종류, 법인설립허가일, 사업목적 및 내용 등의 데이터를 공표</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/3038248/fileData.do</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1505,39 +1520,44 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2239</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>비영리,법인,소관</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_코로나19 타임캡슐데이터</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>ㅇ 제26차 4차 산업혁명위원회("17.10.~"22.6.)에서 "코로나19 타임캠슐 추진계획"을 의결함에 따라 보건복지부에서는 "코로나19 타임캡슐 데이터 목록 활용방안 연구"를 진행ㅇ 위 관련, 코로나19 관련 데이터 목록 등록을 위한 요청에 따라 우리부는 코로나19 확산방지를 위해 활동한 주요정책 성과 자료를 사용자가 데이터를 한번에 쉽고 편리하게 활용할 수 있도록 데이터셋(데이터묶음) 형태로 제공 - 제공 현황: 총 16건의 보도자료로 구성(개별 17개 개별데이터로 구성) - 제공 출처: 우리부 대표홈페이지 &gt; 뉴스소식&gt; 보도자료 - 제공 형태: hwpx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15112333/fileData.do</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1547,44 +1567,39 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>608</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>긴급고용안정지원금,타임캡슐,신종코로나바이러스</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_사회적기업 목록</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>2022년 12월말 기준 활동중인 사회적 기업의 목록을 공표함-지역, 인증번호, 기관명, 사업내용, 사회적목적실현유형,사회서비스분야,대표자 등</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15090110/fileData.do</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1594,44 +1609,44 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-02-03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>453</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>사회적기업,목록,기업</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_산업재해 발생 보고의무 2회 이상 위반 사업장</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>18.1.1~20.12.31 기간에 산재발생 보고의무 2회 이상 위반한 사업장을 공표-사업장명, 사업장 소재지, 위반횟수</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15090007/fileData.do</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1641,44 +1656,44 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>347</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>산업재해,보고의무,위반</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_산업재해 발생 사실 은폐 사업장</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>20.1.1~20.12.31 기간에 산업재해 발생 사실을 은폐한 사업장을 공표함-지역,업종,규모,사업장,사업장 소재지</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15090005/fileData.do</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1688,44 +1703,44 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>산업재해,은폐,사업장</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_사망만인율이 규모별 동종업종 평균사망만인율 이상인 사업장</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>사망만인율이 규모별 같은 업종 평균 사망만인율 이상인 사업장을 표기하였습니다.원도급업체와 동일한 장소에서 작업을 하는 하도급업체의 근로자가 사망한 경우 산업안전보건법 위반으로 처벌받은 원도급업체와 하도급업체의 사업장명을 함께 공표</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15090126/fileData.do</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,39 +1750,44 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>산업재해,사망만인율,사업장</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_산업재해 사망자 연간 2명이상 발생 사업장</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>원도급업체와 동일한 장소에서 작업하는 하도급업체의 근로자가 2명이상 사망한 경우 산업안전보건법 위반으로 처벌받은 원도급업체와 하도급업체의 사업장명을 함께 공표</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15090000/fileData.do</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1777,44 +1797,44 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>1406</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>산업재해,사망자,사업장</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_직종별사업체노동력조사</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>산업별, 직종별 부족인원의 규모와 구인 활동에도 충원되지않는 미충원인원을 파악하여, 관련연구 및 인력부족 현상의 해소를 위한 정책 자료로 제공</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/3038237/fileData.do</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1824,44 +1844,44 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>2692</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>347</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>부족인원,채용계획인원,미충원인원</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_일가정양립실태조사 데이터</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>남녀고용평등법 제6조의3에 근거하여 모성보호 및 일가정 양립 지원제도의 도입실태를 파악하고자 전국 상시근로자 5인 이상 사업체 중 업종별, 사업체 규모별로 층화추출된 5000개 표본사업체의 인사담당자를 대상으로 매년 실시되는 일가정양립실태조사 raw data임 * 동 실태조사는 조사 대상 연도를 기준으로 익년에 실시되므로 데이터 기준일은 익년 12월이 됨을 유의하여 주십시오. (예를 들어 2019년 일가정양립실태조사는 2020년에 조사하여 2020.12월에 데이터 작성됨)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15100310/fileData.do</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1871,44 +1891,44 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-01-25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>528</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>496</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>일가정,실태조사,데이터</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부 (노동통계)직종별사업체노동력조사</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>직종별사업체노동력조사(노동통계)- 반기별 갱신- 산업별, 직종별로 사업체에서 부족한 인원의 규모와 구인 활동에도 충원되지 않는 미충원인원을 파악하여 제공</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/3069913/fileData.do</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1918,44 +1938,44 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>6042</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>1492</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>현원,부족인원,채용계획인원</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_산업재해진폐 고시임금</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>매년 공표되는 산업재해 진폐 고시임금산업재해보상보험법 제36조제6항 및 같은 법 시행령 제25조에 따라 “진폐고시임금”을 다음과 같이 고시합니다.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068776/fileData.do</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1965,39 +1985,44 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-01-13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>1741</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>산업재해,진폐,고시임금</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_베트남 외국인근로자(E_9) 근무현황</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>베트남 국적의 외국인근로자(E-9)의 업종별 근무현황에 대한 데이터로 제조업,건설업,농축산업,서비스업,어업에 근무하는 외국인근로자(E-9)의 통계데이터</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15111729/fileData.do</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2007,44 +2032,39 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>138</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>608</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>외국인</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_기업체노동비용조사</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>근로자 고용에 소요되는 비용을 내역별로 조사하여 정부의 고용노동정책 수립 및 기업의 근로자 복지증진을 위한 자료제 제공</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/3038240/fileData.do</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2054,44 +2074,44 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>212</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>직접노동비용,복리비용,간접노동비용</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_진폐건강진단기관 현황</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>진폐근로자 대상으로 건강진단을 실시하기 위하여 대통령령으로 정하는 인력과 시설기준을 보유하고 지방노동관서로부터 지정승인 된 의료기관 목록</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15105998/fileData.do</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2101,44 +2121,44 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>494</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>147</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>진폐건강진단,건강진단기관,진폐진단기관</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_지역별 업종별 외국인근로자 현황</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>고용허가제 외국인근로자(E-9)의 지역별, 업종별 근무현황으로,시도별(광역지자체), 업종별(5개업종)에서 근무중인 외국인근로자의 수를 제공합니다.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15102368/fileData.do</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2148,44 +2168,39 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>943</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>외국인근로자,고용허가제,E-9</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_외국인력 도입계획</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>외국인근로자의 고용 등에 관한 법률에 따라 외국인력정책위원회에서 결정한 외국인근로자(E-9) 도입규모, 고용허용 업종, 고용허용 인원 및 고용허가제 관련 주요제도개선 사항을 게시한 링크</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002263/fileData.do</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2195,39 +2210,44 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>2731</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>고용허가,외국인근로자,E-9</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_제조업 외국인근로자 근무현황</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>고용허가제 외국인근로자(E-9) 제조업(중분류) 근무현황(식료품 제조업, 음료제조업, 담배 제조업, 석유제품 제조업 등 25개 제조업에 대한 데이터)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15111730/fileData.do</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2237,44 +2257,39 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>608</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>제조업,E-9,고용허가</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부 (노동통계)고용노동통계연감</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>고용노동통계연감은 노동경제지표, 고용, 임금/근로시간 및 노동생산성, 물가 및 가계수지, 노동조합과 위원회, 근로기준, 산재보험, 산업안전, 직업안정, 직업훈련, 고용보험, 고용평등, 국제노동통계 등 주요 고용노동관련 통계를 종합편집한 자료입니다.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15004889/fileData.do</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2284,44 +2299,44 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>309</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>고용,임금,국제노동통계</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_일자리으뜸기업 현황</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>매년 공표되는 일자리으뜸기업 현황일자리정책평가과에서 게시한 2022년도 대한민국 일자리으뜸기업 명단입니다.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068775/fileData.do</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2331,44 +2346,44 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-01-03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>858</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>일자리,으뜸기업,으뜸일자리</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_연도별 최저임금</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>연도별 공표되는 최저임금「최저임금법」제10조제1항에 따라 2023년 1월 1일부터 2023년 12월 31일까지 적용되는 최저임금액</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068774/fileData.do</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2378,44 +2393,44 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>최저임금,최저시급,시급공시</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_사업종류별 산재보험요율</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>매년 공표되는 사업종류별 산재보험요율- 광업, 제조업, 전기ㆍ가스ㆍ증기ㆍ수도사업- 건설업, 운수·창고·통신업, 임업, 어업, 농업- 기타의 사업, 금융 및 보험업</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068737/fileData.do</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2425,39 +2440,44 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>3674</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>산재보험,보험요율,산재보험요율</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_연도별 산업재해발생현황 공표내역</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>연도별 산업재해발생 사업장으로 공표한 내역으로2021.1.1. ~ 2021.12.31. 기간 중- 산업재해로 사망재해자가 2명 이상 발생 사업장,- 사망만인율이 규모별 같은 업종의 평균 사망만인율 이상인 사업장,- 최근 3년 이내 산업재해의 발생에 관한 보고를 2회 이상 하지 않은 사업장,- 중대산업사고가 발생한 사업장과 산업안전보건법 위반죄가 확정된 사업장 명단,- 산업재해 발생 사실을 은폐한 사업장.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15067746/fileData.do</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2467,44 +2487,44 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-12-29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>7087</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>산업재해,산재발생,산재공표</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_건설업 사고사망만인율_정보</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>전업종 및 건설업종의 업무상 사고사망만인율, 사고사망자수, 추락사고사망자수, 건설업 추락사고사망자 중 비계 및 작업발판 추락사망자수</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15040937/fileData.do</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2514,44 +2534,44 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>업무상</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부 산업재해현황</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>산재예방정책과에서 게시하는 &lt;산업재해현황분석&gt; 책자를 참고하여 2014년부터 2021년도까지의 사업장에서 발생한 산업재해 재해자수와 사망자수로 나누어 나열하였습니다.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002274/fileData.do</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2561,44 +2581,44 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>10247</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>7603</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>산업재해,사망자,재해율</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_노사문화 대상 사업장 현황</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>노사문화 대상 수상 사업장 현황으로 2022년 상생과 협력의 노사문화를 모범적으로 실천하고 있는 "22년 노사문화 대상" 수상 기업 현황을 공고한 내용임</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15105981/fileData.do</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2608,44 +2628,44 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>노사문화,대상,노사</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_근로자파견 사업 허가 업체</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>파견근로자 보호 등에 관한 법률 제7조에 따라 고용노동부로부터 허가를 받은 근로자파견 업체 목록으로 "22.11.9.자 기준 작성된 자료임</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15107978/fileData.do</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2655,39 +2675,39 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>595</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>363</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>파견허가,파견업체,근로자파견</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부 위험성평가 인정사업장 현황</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>위험성평가 인정 사업장의 사업장명, 지역, 인정일 등 인정현황산업안전보건법 제36조(위험성평가의 실시) 및 사업장위험성평가에 관한지침에 따른 위험성평가 인정 사업장 현황(2018.1월~2022.9월)입니다.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002452/fileData.do</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2697,44 +2717,44 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>위험성평가,인정,우수사업장</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_산업재해예방 유공포상자 명단</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 공표되는 산업재해예방 유공포상자 명단산재예방정책과에서 게시한 2022년도 산업재해예방유공 포상대상자 명단입니다.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068753/fileData.do</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2744,44 +2764,44 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>산업재해,유공포상자,재해예방</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_워크넷구인구직 취업동향</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>매월 공표되는 워크넷 구인구직 취업동향고용서비스정책과에서 게시한 워크넷 취업동향을 년월별로 구인인원, 구직자수, 취업건수로 나누어 나열되어 있습니다.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068741/fileData.do</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2791,44 +2811,44 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>5659</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>2187</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>워크넷,구인구직,취업동향</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_통계로 보는 우리나라 노동시장의 모습</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>○ 인구, 지역, 산업 등 노동시장 관련 주요 통계를 종합한 통계 자료집 - (전국 총괄) 인구, 경제, 고용, 노동이동, 직업훈련, 근로조건, 노사협력, 산업안전, 시도별 노동시장의 주요 특징 - (대상) 청년, 여성, 장년, 비정규직 - (국제비교) 인구, 고용, 근로조건, 분배지표 등</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15004888/fileData.do</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2838,44 +2858,44 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>고용,실업,임금</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_국민취업지원제도 운영기관</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>취약계층 취업지원사업이 국민취업지원제도의 II유형으로 변경되어 지원됨국민취업지원제도의 운영기관을 csv파일로 제공</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/3038234/fileData.do</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2885,39 +2905,39 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>640</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>국민취업지원제도,취업지원,운영기관</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_재해예방전문지도기관 지정현황</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>매 반기 공표되는 재해예방전문지도기관 지정현황, 기관명, 최초지정일자, 최초지정서발급번호,최근변경일자,주소명,전화번호 등 기관정보 제공</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068759/fileData.do</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2927,44 +2947,44 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>1579</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>재해예방,전문지도기관,지정현황</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_지도점검 통계코드 상세</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>고용노동부에서 지도점검 통계코드 상세정보입니다.(통계구분코드, 지도점검 통계코드, 지도점검 통계코드명으로 구성되어 있습니다.)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15072601/fileData.do</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2974,44 +2994,44 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>488</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>지도점검,통계코드,상세코드</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부 퇴직연금도입 현황</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>퇴직연금제도 적립 금액 및 운용방식과 퇴직연금제도 도입 사업장, 퇴직연금제도 가입 근로자, 개인형 퇴직연금제도, 중도인출과 IRP 이전 또는 해지와 이전 예외, 통계표 등을 게시</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002099/fileData.do</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3021,44 +3041,44 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>2959</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>392</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>퇴직연금,도입,가입</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_인적자원개발 우수기관 인증 현황</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>연도별 인적자원개발 우수기관의 인증 현황- 제공 주요 정보(인증 번호, 신규 또는 재인증 여부, 인증대상기관명, 기업규모)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15055718/fileData.do</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3068,17 +3088,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>2265</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>774</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3088,24 +3108,24 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>인적자원개발,인증,우수기관</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_(고용통계)사업체기간제근로자현황조사</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>사업체 규모별 기간제근로자수,산업별 기간제근로자수, 규모 및 산업별 계약기간 만료자 조치현황, 근속기간, 계약종료 현황 등을 제공</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/3075235/fileData.do</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3115,39 +3135,44 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>3051</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>기간제근로자수,근속기간,계약종료</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_산업안전보건 직무교육기관 현황</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>산업안전보건법 제32조제3항에 따라 고용노동부장관에게 등록한 직무교육 위탁교육기관과 발급번호 등 현황정보 제공</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002419/fileData.do</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3157,44 +3182,44 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>산업안전보건,위탁교육기관,지정교육기관</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_근로자파견사업체 현황</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 공표되는 근로자 파견사업체 현황고용차별개선과에서 등록한 2021년 상반기, 하반기 근로자파견사업 현황이 추가되었습니다.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068750/fileData.do</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3204,44 +3229,44 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>파견사업체,근로자파견,사업체현황</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_청년내일채움공제 운영기관 선정 현황(링크)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>청년인턴제가 "열정페이" 문제로 사업이 취소되고 대체사업으로 청년내일채움공제를 추진하고 있어 개방 데이터를 변경기존에 청년인턴제 개방 데이터가 2건 이어서 하나는 파일데이터 개방으로 처리하고 하나는 링크데이터 개방으로 처리</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15044035/fileData.do</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3251,44 +3276,44 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>2422</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>369</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>중소</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_작업환경측정 정보</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>사업장의 작업환경(소음,물질 등)을 측정하여 17~21년 작업환경측경 추이,21년 작업환경측정 결과 분석,21년 작업환경측정 결과 요약 등 정보를 제공</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15029796/fileData.do</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3298,17 +3323,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>541</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3318,24 +3343,24 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>작업환경,산업보건,사업장안전</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_인적자원개발 우수기관 인증현황(링크)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>2021년 인적자원개발 우수기관 인증 기업(Best-HRD) 목록입니다.동일한 건이 두개이어서 그중 하나는 링크로 변경.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15055717/fileData.do</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3345,39 +3370,44 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>인적자원개발,민간부문,우수기관</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_우리사주조합 현황(링크)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>설립된 우리사주조합에 대한 현황자료이며, 연도별 운영ㆍ결성ㆍ예탁ㆍ취득ㆍ보유기간 현황 등의 항목이 포함되어 있습니다. 해당 링크는 고용노동부 홈페이지 사전정보 공표목록 창으로 이어지는 링크입니다.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15043962/fileData.do</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3387,44 +3417,39 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>2476</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>608</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>311</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>우리사주,현황,통계</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_국내 유료직업소개사업소 현황</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 공표되는 국내 유료 직업소개사업소 현황고용서비스정책과에서 게시한 2022년도 국내 유료직업소개사업소 현황입니다.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068777/fileData.do</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3434,44 +3459,44 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>직업소개소,국내유료,소개사업소</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부 작업환경측정기관 지정 정보</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>산업안전보건법 제42조제4항에 따라 지방고용노동관서의 장으로부터 지정을 받은 작업환경측정기관 및 측정기관 평가등급 등의 데이터</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15002418/fileData.do</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3481,44 +3506,44 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>2283</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>측정기관,작업환경,지정</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_국외 유료직업소개사업소 현황</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>매년 공표되는 국외 무료직업소개사업소 현황고용서비스정책과에서 게시한 2022년도 국외 무료직업소개사업소 현황입니다.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068770/fileData.do</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3528,44 +3553,44 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>2174</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>660</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>직업소개소,국외유료,소개사업소</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_직업정보제공사업자 현황</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>매년 공표되는 직업정보제공사업자 현황고용서비스정책과에서 게시한 2022년도 직업정보제공사업체 현황입니다.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068779/fileData.do</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3575,39 +3600,44 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2385</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>직업정보,정보제공사업소,직업정보제공</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_국외 무료직업소개사업소 현황</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>매년 공표되는 국외 무료직업소개사업소 현황고용서비스정책과에서 게시한 2022년도 국외 무료직업소개사업소 현황입니다.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068771/fileData.do</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3617,44 +3647,44 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>1478</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>471</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>직업소개소,국외무료,소개사업소</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_고용형태별근로실태조사</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>근로자 1인 이상인 사업체에 종사하는 근로자의 다향 고용형태별 임금, 시간 등 근로실태를 파악하여 학술연구 및 고용노동정책 자료로 제공</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/3038238/fileData.do</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3664,44 +3694,44 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>9560</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>고용형태,월급여액,사회보험</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_산재요양신청서 상병코드(1)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>산재요양신청서(산업재해에 따른 요양을 신청하기 위해 작성하는 문서)에 기재하는 상병(다치거나 병에 드는 것) 목록으로 상병명에 대한 상병 코드를 안내합니다.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15049598/fileData.do</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3711,44 +3741,44 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>2385</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>810</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>산재요양신청서,상병코드,코드</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_대지급금 상한액</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>도산대지급금(도산한 사업장의 미지급 임금,퇴직금,수당 등을 국가가 대신 지급하는 금액)에 대한 연령별 유형별 상한액을 정의한 자료</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15086693/fileData.do</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3758,44 +3788,44 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>172</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>대지급금,상한액,고시</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_산업재해장례비보상금액 기준</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>매년 공표되는 산업재해장례비 보상 기준22년 1월 1일부터 12월 31일까지 효력을 가진 장례비 최고금액과 장례비 최저금액(고용노동부고시) 기준입니다.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068756/fileData.do</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3805,39 +3835,44 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>산업재해,장례비,보상기준</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부 (노동통계)기업체노동비용조사</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>근로자 고용에 소요되는 비용을 내역별로 조사하여 정부의 고용노동정책 수립 및 기업의 근로자 복지증진을 위한 자료 제공</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/3069917/fileData.do</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3847,44 +3882,44 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>2720</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>547</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>사회보험,노동비용,복리비</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_건설업 기초안전보건교육기관 지정현황</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 공표되는 건설업 기초보건안전교육기관 지정현황- 2012년 10월 ~ 2021년 12월 까지의 교육기관 지정현황- 년도,등록번호,기관명,전화번호,팩스번호,우편번호,주소 등</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068761/fileData.do</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3894,44 +3929,44 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>기초안전,보건교육,지정현황</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_국내 무료직업소개사업소 현황</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>매년 공표되는 국내 무료 직업소개사업소 현황고용서비스정책과에서 게시한 2022년도 국내 무료직업소개사업소 현황입니다.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068778/fileData.do</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3941,44 +3976,44 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>2199</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>641</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>직업소개소,국내무료,소개사업소</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_(노동통계)사업체노동실태현황</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>통계청에서 매년 조사하는 「전국사업체조사」원시자료를 고용노동부의 행정 기준에 맞게 가공/집계하여 사업체수와 종사자수에 관한 통계자료 제공</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/3075076/fileData.do</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3988,44 +4023,44 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>2209</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>사업체수,종사자수,산업</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_(노동통계)고용형태별근로실태조사</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>근로자 1인 이상인 사업체에 종사하는 근로자의 성별, 학력, 연령, 산업, 직종, 규모 고용형태별 임금, 근로시간 등 근로실태 제공</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/3069915/fileData.do</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4035,39 +4070,44 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>임금총액,근로일수,근로시간</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_기업직업훈련 실태조사</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>기업직업훈련 실태조사보고서 -기업의 직업훈련 제공여부, 직업훈련에 대한 투자와 실적, 훈련에 대한 평가, 정부의 훈련지원정책의 효과 등 기업의 훈련실태 전반에 대한 체계적 조사개요, 조사요약 등참고 : 본 자료는 연구 용역기관에서 작성･제출한 연구결과 보고서로, 고용노동부의 공식 의견이 아님을 참고하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15044924/fileData.do</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4077,44 +4117,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>468</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>기업훈련,기업직업훈련,직업훈련실태조사</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_유해위험작업 지정교육기관 현황</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>매년 공표되는 유해위험작업 지정교육기관 현황산업안전보건법 제47조 및 유해·위험작업의 취업 제한에 관한 규칙 제4조에 따른 유해·위험작업 지정교육기관 현황</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068769/fileData.do</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4124,44 +4164,44 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>615</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>유해,위험,지정</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_근로시간면제 조견표</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>조합원 규모별로 임원 또는 조합원의 연간 근로시간면제 한도를 관리 (순번, 적용만료월, 적용시작월, 조견표명, 조합원규모시작인원수, 조합원규모종료인원수, 시간한도, 기준인원)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15072543/fileData.do</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4171,44 +4211,39 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1414</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>667</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>근로시간,면제,조견표</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_청년내일채움공제 운영기관 선정 현황</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>청년내일채움공제 운영기관 선정현황(기관명, 주소지, 연락처 등)입니다.청년인턴제가 "열정페이" 문제로 사업이 취소되고 대체사업으로 청년내일채움공제를 추진하고 있어 개방 데이터를 변경기존에 청년인턴제 개방 데이터가 2건 이어서 하나는 파일데이터 개방으로 처리하고 하나는 링크데이터 개방으로 처리</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15044036/fileData.do</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4218,44 +4253,44 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>497</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>중소기업,청년내일채움공제,지원</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_근로자 건강증진활동 관련 민간전문기관 현황</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>매년 공표되는 근로자 건강증진활동 관련 민간 전문기관 현황직업건강증진팀에서 게시한 2022년도 「근로자 건강증진활동」 관련 민간 전문기관 현황입니다.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068768/fileData.do</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4265,39 +4300,44 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1665</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>근로자건강,건강증진,지정현황</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_근로자공급 사업자 현황</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>매년 공표되는 근로자공급 사업자 현황- 2022.9월 현재 근로자공급사업자 현황입니다.- 번호, 사업장명, 소재지, 대표자, 공급분야</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15068744/fileData.do</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4307,44 +4347,44 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>814</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>근로자공급,공급사업자,사업자</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_고용노동행정 고객만족도 조사 결과</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>ㅇ2021년 고용노동행정과 관련한 고객만족도 종합보고 조사 결과임 - 제1장 조사개요, 제2장 조사결과, 제3장 답변 트리분석, 제4장 관서별 분석 , 제5장 결론 및 요약</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15105793/fileData.do</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4354,44 +4394,39 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>264</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1836</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>14</t>
+          <t>188</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>근로자수,빈일자리수,임금</t>
+          <t>고용,노동,고객만족도</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>고용노동부_신규화학물질</t>
+          <t>고용노동부_비혼 단신근로자 실태생계비</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 신규화학물질의 명칭, 유해성, 제조 수입량, 위험성 정보, 근로자 건강장해 예방을 위한 조치사항 제공</t>
+          <t>최저 임금법 제3조(최저임김의 결정기준과 구분) ①최저임금은 근로자의 생계비, 유사 근로자의 임금, 노동생산성 및 소득분배율 등을 고려하여 정한다.최저임금법 제23조(생계비 및 임금실태 등의 조사) 고용노동부장관은 근로자의 생계비와 임금실태 등을 매년 조사하여야 한다.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002450/fileData.do</t>
+          <t>https://www.data.go.kr/data/15106012/fileData.do</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4401,44 +4436,39 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>130</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1414</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>161</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>화학물질,유해성,위험성</t>
+          <t>근로소득,가계</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>고용노동부_근로자 건강센터 현황</t>
+          <t>고용노동부_과태료 부과내역</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자 건강센터 설치현황</t>
+          <t>고용노동부에서 제공하는 순번, 과태료부과유형, 과태료징수요청일자, 과태료징수요청결과, 과태료징수결정금액, 가산금금액, 합계금액, 과태료부과상태 순으로 나열된 과태료 부과내역 데이터파일입니다.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15002433/fileData.do</t>
+          <t>https://www.data.go.kr/data/15071628/fileData.do</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4448,44 +4478,44 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>788</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>건강센터,건강지원센터,센터</t>
+          <t>과태료,부과내역,과태료부과</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>고용노동부_건설재해예방전문지도기관</t>
+          <t>고용노동부_과태료 징수수납내역</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>고용노동부가 공표한 건설재해예방전문지도기관 명단으로 지도기관명, 주소, 전화번호, 관할 지방관서, 지도분야 등에 대한 정보를 제공합니다.</t>
+          <t>고용노동부에서 제공하는 순번, 징수유형, 징수결의일자, 총부과금액, 수납일자, 수납금액, 징수여부 순으로 나열된 과태료 징수부과 내역 CSV파일 데이터자료입니다.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15113114/fileData.do</t>
+          <t>https://www.data.go.kr/data/15071639/fileData.do</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4495,39 +4525,44 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2299</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>건설안전,기술지도,건설재해예방</t>
+          <t>과태료,징수,수납</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>고용노동부_일가정양립실태조사 보고서</t>
+          <t>고용노동부_남녀고용평등 포상 우수기업 정보</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>매년 한국여성정책연구원에 연구용역을 의뢰하여 작성한 연구보고서일가정 양립을 위한 모성보호, 유연근로 실태 현황조사에 대한 보고서</t>
+          <t>ㅇ 남녀고용평등 실현에 앞장선 우수기업과 유공자를 발굴 시상하여 남녀가 동등하게 일할 수 있는 고용환경을 조성하도록 장려하고, 사회 전반에 남녀고용평등 의식 확산을 유도ㅇ 적극적 고용개선조치(Affirmative Action) 이행실적 평가결과 우수기업을 시상하여 이행률 제고ㅇ 남녀고용평등 포상 우수기업 명단 제공</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/15032836/fileData.do</t>
+          <t>https://www.data.go.kr/data/15066117/fileData.do</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4537,44 +4572,44 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>679</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>모성보호,유연근로,일가정양립</t>
+          <t>남여고용평등,우수기업,고용평등</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>고용노동부_사업체노동력조사</t>
+          <t>고용노동부_우리사주조합 현황</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>사업체의 종사자수, 빈 일자리, 노동이동, 근로시간, 임금 등에 관한 사항을 정기적으로 조사하여 산업 유형별 고용상황과 근로시간, 임금상승률 등에 관한 지표를 제공</t>
+          <t>연도별 우리사주조합 연도별운영 현황, 우리사주조합결성현황, 기업규모별 우리사주조합 결성현황, 우리사주예탁현황, 우리사주 재원별 취득현황- 코스피 조합결성률(B/A),코스피 가입률(D/C), 코스닥 조합결성률(B/A),코스닥 가입률(D/C),기타 조합결성률(B/A), 기타 가입률(D/C)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.data.go.kr/data/3038232/fileData.do</t>
+          <t>https://www.data.go.kr/data/15043963/fileData.do</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4584,27 +4619,3734 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>687</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>우리사주조합,우리사주,조합</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>고용노동부_남녀고용평등 포상 유공자 정보</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ㅇ 남녀고용평등 실현에 앞장선 우수기업과 유공자를 발굴 시상하여 남녀가 동등하게 일할 수 있는 고용환경을 조성하도록 장려하고, 사회 전반에 남녀고용평등 의식 확산을 유도ㅇ 남녀고용평등 포상 유공자 명단 제공</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15028035/fileData.do</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>남녀고용평등</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>고용노동부_노동조합 조직현황</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020년 전국노동조합 조직현황을 파악하여 노동정책 수립의 기초 자료 및 노동 조합 운영, 활동 분석 등의 참고 자료로 활용함을 목적으로 함.- 통계 개요- 노동조합 조직현황 주요 내용- 노동조합 조직현황 통계자료</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15044592/fileData.do</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3911</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>노동조합,조직현황,조직률</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>고용노동부_산업재해보상금액 기준</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>매년 공표되는 산업재해보상금액 기준22년 1월 1일부터 12월 31일까지 효력을 가진 산업재해보상금액(고용노동부고시) 기준입니다.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068754/fileData.do</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>산업재해,보상금액,보상기준</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>고용노동부_고용복지플러스센터 현황</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>전국에 있는 고용복지플러스센터 현황 (2021.12월말 기준)- 센터명,관할구역,소재지(도로명),대표번호- * "고용복지센터"는 5명 내외 소규모 센터로 국민취업지원제도 업무 수행</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15066368/fileData.do</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>플러스센터,플러스,고용복지플러스</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>고용노동부_전국 노동조합 조직현황</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ㅇ전국노동조합 조직현황을 파악하여 노동정책 수립의 기초 자료 및 노동 조합 운영, 활동 분석 등의 참고 자료로 활용함을 목적으로 함.- 총괄- 부문별 현황- 노동조합 조직현황 통계자료</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15106572/fileData.do</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>전국노동,조직현황,노동조합</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자건강센터 현황</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>보건관리가 취약한 소규모 사업장 근로자의 직업병 예방 및 건강증진을 위한 기초 직업건강서비스를 제공하기 위해 설치한 근로자건강센터 현황</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15106005/fileData.do</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>근로자건강,건강지원,센터현황</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>고용노동부_우수숙련기술인 선정 현황</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>대한민국 명장,우수숙련기술자,숙련기술전수자 등 분야와 직종 등 선정된 우수숙련기술인에 대한 성명,소속,직위 등의 정보 제공</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038244/fileData.do</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2566</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>명장,선정,숙련기술</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>고용노동부_보건관리자 선임 현황</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>산업안전보건법 제18조에 따라 선임하여야 하는 업종별, 자격별 제조업 및 건설업 보건관리자 선임현황(2021년)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15036535/fileData.do</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>보건관리자,업종별,자격별</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>고용노동부_장애인고용촉진 및 직업재활기금 결산 내역</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ㅇ장애인고용촉진 및 직업재활기금 연도별 결산 자료로 의무고용률 상향 및 공공기관 장애인 고용 책임성을 강화하여 공공무분의 안정적 일자리 확보 - 결산내역, 수입지출결산</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15106022/fileData.do</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>근로자수,빈일자리수,임금</t>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>장애인고용촉진,장애인기금,결산</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>고용노동부_지역일자리 목표 공시제 시상내역</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>지역일자리 목표 공시제는 자치단체장이 임기 중 추진할 일자리 목표와 대책을 발표토록 하고, 중앙정부는 그 대책이 원활히 수행될 수 있도록 그 추진성과와 연계한 인센티브를 제공하는 중앙-지방 간 일자리 협력사업이며, 매년 우수 자치단체를 선정하여 시상함</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15105463/fileData.do</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>공시제,지역일자리,시상내역</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>고용노동부_국가직무능력표준(NCS) 개발·개선 현황</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>산업현장에서 직무를 수행하기 위하여 요구되는 지식, 기술, 소양 등의 내용을 국가가 산업부문별, 수준별로 체계화한 국가직무능력표준(NCS)의 개발 및 개선 현황</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15106008/fileData.do</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>국가직무능력표준,NCS,능력단위</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>고용노동부_고용노동 정책 주요 홍보 자료</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ㅇ매년 우리부에서 추진하는 고용노동 정책 주요 홍보 자료를 제공하는 내용 - (세부내용) '22년 7월부터 변경되는 실업인정제도 등 안내 홍보 자료* * 7월1일 수급자격 신규신청자부터 실업급여를 받기 위한 실업인정방식 달라집니다.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15105985/fileData.do</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>실업인정,교육,고용</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>고용노동부_지도점검 종결처리 구분코드</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>내부시스템의 지도감독 시, 업무 종결에 사용하는 코드성 데이터입니다. - (항목명) 종결조치대분류코드,종결조치대분류명,종결조치중분류코드,종결조치중분류명,종결조치구분코드,종결조치구분</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072559/fileData.do</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>코드성,코드데이터,종결구분값</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>고용노동부_주요결정사례</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>중앙노동위원회 및 지방노동위원회에서 제기된 부당해고 및 부당노동행위 관련 민원사항에 대한 결정사례 등을 모아놓은 자료</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15084877/fileData.do</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>노동위원회,민원사항,결정사례</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>고용노동부_주요판정사례</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>중앙노동위원회 및 지방노동위원회 부당해고 및 부당노동행위 민원관련 판정사례 등을 익명화하여 홈페이지에 공개된 자료</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15084878/fileData.do</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>노동위원회,민원사항,판정사례</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>고용노동부_고용노동백서</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ㅁ 고용노동백서(고용노동부 정기간행물)ㅇ 등록예정일 : 매년 6.30.(6월말)ㅇ 설명: 지난해 고용노동정책 내용 및 성과를 종합 정리하고, 국회및 관련 단체 등에 배포하여 대국민 정책 홍보자료로 활용되는 정기 간행물※ 발간 일정은 상황에 따라 조정 가능ㅇ 주요내용- 지난해 고용노동정책 내용 및 성과 총망라</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15045219/fileData.do</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3068</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>고용노동,고용노동법,노동백서</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>고용노동부_장애인고용 저조기관 및 기업명단 현황</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>장애인 고용의무를 현저히 불이행한 기관 및 기업명단, 저조기준, 근로자수, 고용 의무 인원수,장애인 근로자 수 등 공표</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15028088/fileData.do</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2514</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>장애인,의무고용,저조기업</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>고용노동부_표준산업분류코드</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>통계청에서 제공하는 표준산업분류표에 대한 정보이며, 고용노동부 내부시스템에서 매핑용도로 사용하는 데이터입니다. * (항목명) 순번, 산업분류코드, 산업분류명칭, 데이터기준일** 내부시스템 통계용도로 사용하는 데이터이므로, 통계청 발표자료와 다소 차이가 있을 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049591/fileData.do</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>21792</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>업종,표준산업,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>고용노동부_과태료 우편발송내역</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>고용노동부 과태료 우편발송 내역 (기관명, 우편발송일자, 우편배송결과, 수령인, 미배송사유, 배송결과 등록일)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15071635/fileData.do</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>과태료,우편발송,과태료발송</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>고용노동부_산업재해예방 지정기관 인력기준</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>산업재해예방을 위해 지정하는 지정기관별 인력기준 목록을 안내합니다.(순번, 교육기관구분, 지정기관구분, 인력구분, 인력구분, 자격조건, 자격조건_변경후의 항목으로 구성되어 있습니다.)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072615/fileData.do</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>사업재해,지정기관,인력기준</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>고용노동부_사업장기계기구 기인물코드</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>사업장에서 운용중인 기계에 대한 분류코드 목록입니다. (기인물명코드, 기인물명, 기인물명상세코드, 기인물명상세으로 구성되어 있습니다.)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072603/fileData.do</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>기계기구,기인물,사업장</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>고용노동부_사업장기계기구 대상물코드</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>사업장기계기구 대상물 코드로 대상물명칭에 대한 대상물코드를 안내합니다. (데이터 기준일, 대상물 코드, 대상물명으로 구성되어 있습니다.)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072606/fileData.do</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>기계기구,대상물,사업장</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>고용노동부_산업재해 발생형태 코드</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>산업재해 발생형태 코드 목록입니다.(구분코드, 구분명칭, 발생형태코드, 발생형태명(떨어짐, 끼임, 깔림, 무너짐, 폭발파열 등 ))</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049607/fileData.do</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5071</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>산업재해,발생형태,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>고용노동부_산업재해자 직업 코드</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>산업재해자의 직업 코드 목록입니다.(구분코드, 직업구분, 상세코드, 직업상세명 [예시] 구분코드 : 231, 직업구분 : 건축 및 토목 공학 기술자 및 시험원, 상세코드 : 23129,직업상세명 : 그 외 토목관련기술자)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049605/fileData.do</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2488</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>산업재해자,직업,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>고용노동부_상해종류 코드</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>산업재해자의 상해종류의 목록을 안내합니다.(상해종류코드, 상해종류명칭, 상세상해코드, 상세상해명칭의 항목으로 구성되어 있습니다.)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049601/fileData.do</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>산업재해,상해종류,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>고용노동부_체류자격 코드</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>산업재해자가 체류하는 자격에 대한 목록을 안내합니다.(체류자격코드, 체류자격명칭 안내, [예시] 체류자격코드: 101, 체류자격명칭 : 외 교(A-1))</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049603/fileData.do</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2850</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>산업재해자,체류자격,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>고용노동부 장애인 의무고용 현황</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>국가 및 지방자치단체, 상시 50명이상 공공기관, 민간기업의 고용주의 장애인 고용상황을 조사하여 장애인 고용정책 및 의무이행 지도 등에 활용</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15028087/fileData.do</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2558</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>장애인,의무고용,고용률</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>고용노동부_검찰청 기관관리코드</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>내부시스템에서 사용하는 관리용 코드매핑 데이터이며, 전국 지방 검찰청 목록에 대한 데이터입니다.* (항목명) 지방관서코드,지방관서명칭,관할검찰청코드,관할검찰명칭** 내부 통계관리용 데이터이므로, 타시스템의 데이터와 다소 차이가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049597/fileData.do</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1696</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>검찰,지방관서,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>고용노동부_산업재해보상보험재심사청구관련 정보</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>연간 산업재해보상보험위원회에서 1년 동안 처리한 산업 재해 보상보험 재심사 정보로 접수번호, 급여, 처리기한, 진행상태, 사건명, 상병 종류 등의 데이터를 제공 합니다.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15089701/fileData.do</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>산업재해보상보험,산업재해보상보험재심사청구,산심위</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자 과태료부과 기준</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>근로자의 산업안전보건법 위반시 부과되는 과태료 부과기준 코드 목록을 안내합니다. (위반내용코드,위반내용,위반내용상세코드,위반내용상세,과태료금액의 항목으로 구성되어 있습니다.)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072540/fileData.do</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2565</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>과태료,부과기준,과태료부과</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>고용노동부_산업재해자 작업지역 코드</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>산업재해가 발생한 작업지역 코드를 안내드립니다.(작업지역종류코드, 작업지역종류명칭, 상세작업지역코드, 상세작업지역명칭 항목으로 구성되어 있습니다.)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049600/fileData.do</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1807</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>산업재해자,작업지역,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>고용노동부_산업재해자 국적 코드</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>산업재해자의 국적의 코드를 안내합니다.(항목 : 국가코드,국가명칭,영문명칭, [예시] 국가코드 : 001, 국가명칭 : 미국,영문명칭 : U.S.A(Mainland))</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049604/fileData.do</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3599</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>산업재해자,국적,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>고용노동부_산업재해자 기인물 코드</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>산업재해 발생 시 재해자에게 해를 끼친 기인물에 대한 코드와 목록을 안내합니다.(대분류코드, 대분류코드명, 소분류코드, 소분류코드명)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049606/fileData.do</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>산업재해자,기인물,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>고용노동부_산업재해자 작업내용 코드</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>산업재해 발생 당시 작업자가 행한 작업내용에 대한 목록(작업내용종류코드, 작업내용종류명칭, 상세작업내용코드, 상세작업내용명칭)을 안내합니다.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049599/fileData.do</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>재해자</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>고용노동부_상해부위 코드</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>산업재해자의 재해발생 부위에 대한 목록(코드목록 : 상해부위코드, 상해부위명칭, 상세부위코드, 상세부위명칭)을 안내드립니다.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049602/fileData.do</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2058</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>산업재해,상해부위,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>고용노동부_직장내성희롱예방교육 지정기관 현황</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>매년 공표되는 직장내성희롱 예방교육 지정기관 현황 ※ 첨부된 지정 교육기관은 고용노동부에서 별도로 지정한 직장 내 성희롱 예방 교육기관이며, 직장 내 성희롱 예방 교육은 사업장 자체, 지정 교육기관 이외의 기관, 개인도 가능하오니 착오 없으시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068738/fileData.do</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2286</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>성희롱,예방교육,지정기관</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>고용노동부 보건관리전문기관 현황</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>산업안전보건법 제16조제3항에 따라 지방고용노동청장으로부터 지정받은 보건관리전문기관 현황("22.7.27.기준)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002436/fileData.do</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5506</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2595</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>보건관리,대행기관,전문기관</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>고용노동부_외국인노동자지원센터</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>국내에 체류하고 있는 고용허가제 외국인근로자(E-9, H-2)에게 체류지원서비스를 제공하기 위한 외국인노동자지원센터 현황입니다.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038226/fileData.do</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2509</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>외국인근로자,지원센터,외국인</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>고용노동부_통계용 코드 데이터(업무별 세부업무 분류용도)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>내부 시스템의 통계 데이터에 사용하는 매핑용 코드 데이터입니다. * (항목명) 통계구분코드, 통계대분류명, 통계중분류명, 통셰상세분류명, 정렬순서, 유효시작월, 유효종료월</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072550/fileData.do</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>통계,내부관리용,코드상세</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>고용노동부_통계용 코드 데이터(업무분류에 대한 상세코드)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>내부 시스템의 통계에서 업무분류를 위해 사용하는 코드성 데이터입니다. * (항목명) 업무구분코드, 업무구분명, 대분류코드, 대분류코드명, 소분류코드, 소분류코드명</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072548/fileData.do</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1653</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>내부시스템,통계관리용,업무분류코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>고용노동부 석면업체 현황</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>산업안전보건법 제121조에 따라 지방고용노동관서의 장에게 등록을 신청하여 등록된 석면해체제거업체 현황 자료를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15002428/fileData.do</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>석면업체,석면업체지정현황,석면업체해체</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>고용노동부_석면조사기관 지정현황</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>산업안전보건법 제120조에 따라 지방고용노동청장에게 지정을 신청하여 지정된 석면조사기관 지정 현황을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068766/fileData.do</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>석면조사,조사기관,지정현황</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>고용노동부_노동위 매핑코드(통계용)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>내부시스템에서 사용하는 지방관서와 노동위원회 간 매핑하는 데이터입니다.(통계 관리용) * (항목명) 지방관서코드, 지방관서명칭, 노동위원회코드, 노동위원회명칭</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049596/fileData.do</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1725</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>노동위,관서,매핑</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>고용노동부_지방관서별 관할지역 기관관리코드</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>내부시스템에서 사용하는 지방관서별 관할지역에 대한 데이터입니다. * (항목명) 지방관서코드, 지방관서명칭, 관할시도, 관할시군구</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049593/fileData.do</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>지방관서,관할지역,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>고용노동부_관서별 검찰청 기관관리코드</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>내부시스템에서 사용하는 관리용 코드매핑 데이터이며, 지방관서별 관할관서에 대한 데이터입니다. * (항목명) 지방관서코드, 지방관서명칭, 관할청, 관할검찰청 ** 내부 통계관리용 데이터이므로, 타시스템의 데이터와 다소 차이가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049594/fileData.do</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1758</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>검찰,관서,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>고용노동부_관서정보 기관관리코드</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>내부시스템 통계에서 사용하는 지방관서별 코드 매핑 데이터입니다. * (항목명) 지방관서코드, 지방관서명칭, 관할청, 관할검찰청</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049595/fileData.do</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1778</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>지방관서,관서정보,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>고용노동부_사업장규모 분류</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>내부시스템 의 사업장 정보에 대하여 규모를 분류할 때 사용하는 코드성 데이터입니다. * (항목명) 규모구분코드, 규모구분명, 규모소분류코드, 규모소분류명, 규모중분류코드, 규모중분류명</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072554/fileData.do</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2379</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>사업장,규모,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>고용노동부_업종코드</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>내부시스템에서 사용하는 업종코드 및 매핑데이터입니다. * (항목명) 대분류, 중분류, 소분류, 업종코드, 업종명 ** 내부시스템 사용용도이므로, 통계청에서 발표한 표준산업분류표와 다소 차이가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15049592/fileData.do</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6856</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2387</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>업종,표준산업분류,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>고용노동부_연령분류표</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>내부시스템 통계에 사용되는 연령코드 및 매핑자료입니다. * (항목명) 순번, 연령구분명, 연령대분류명, 연령중분류명, 연령소분류명, 시작나이, 종료나이 ** 내부시스템 통계에 사용하는 용도이므로, 연령구분은 타시스템과 차이가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072616/fileData.do</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>연령분류,연령,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>고용노동부_취업촉진수당 지급현황</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>매년 공표되는 취업촉진수당 지급현황- 취업촉진수당은 구직급여 수급자의 적극적인 구직활동을 통한 조기 재취업을 장려하기 위하여 도입된 인센티브로서 조기재취업수당, 직업능력개발수당, 광역구직활동비, 이주비로 구분</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068743/fileData.do</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>취업촉진,촉진수당,지급현황</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>고용노동부_지도점검 통계분류 코드</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">근로감독관의 지도검검 현황 통계산출시 사용되는 분류 코드 (분류코드, 분류명, 통계유형코드, 통계유형명)  </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072561/fileData.do</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>지도점검,통계분류,코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>고용노동부_지방관할관서 우편번호정보</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>고용노동부 지방관서에 대한 우편번호 정보입니다.(내부 시스템 통계관리용도) * (항목) 청구분, 관서명, 우편번호, 시도, 구군, 읍면동, 번지구분, 시작번지, 끝번지 ** 내부시스템 통계관리용도이므로, 시작번지와 끝번지는 정확하지 않을 수도 있음</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15072474/fileData.do</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1706</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>우편번호,관할관서,지방관서</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>고용노동부_연도별 대지급금 지급현황</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>고용노동부에서 제공하는 연도, 사업장수 계, 근로자수 계, 금액 계, 도산대지급금 사업장수, 도산대지급금 근로자수, 도산대지급금 금액,간이대지급금 사업장수,간이대지급금 근로자수,간이대지급금 금액 순으로 나열한 연도별 대지급금 지급현황 파일입니다.</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068749/fileData.do</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1871</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>대지급금,지급현황,연도별</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>고용노동부_구직급여 수급 현황</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2015년~2021년 고용노동부 구직급여 수급 현황 (수급자, 수급액) 데이터를 제공합니다. - 근로자, 예술인(2020년 12월부터), 노무제공자(2021년 7월부터)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15029716/fileData.do</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2465</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>실업급여,고용보험,지원금</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>고용노동부_구직급여 소정급여일수</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>고용보험법 제50조 및 고용보험법 시행규칙 별표1에 따라 공표되는 연령 및 고용보험 가입기간별 소정급여일수 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068742/fileData.do</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>고용보험,구직급여,소정급여일수</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>고용노동부_사회적기업 인증현황</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2007년~2022년 6월 까지 사회적 기업의 신청과 인증, 현재유지 현황을 연도별로 정리하여 csv파일로 정보를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15090102/fileData.do</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1134</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>사회적기업,인증,현황</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>고용노동부_안전인증및안전검사기관 지정현황</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>매년 공표되는 안전인증 및 안전검사기관 지정 현황으로 안전인증 및 안전검사를 받아야 하는 사업장이 참고할 수 있도록 해당 현황을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068757/fileData.do</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2739</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>안전인증,안전검사,지정현황</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>고용노동부_사회적기업 지원 현황</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>고용노동부에서 선정한 사회적기업을 대상으로 한 연도별 재정지원사업(일자리창출사업, 사업개발비, 사회보험료) 지원 현황</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15029797/fileData.do</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2179</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>사회적기업,재정지원,일자리지원</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>고용노동부_사회적기업 지자체 교부 예산 현황</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>매년 사회적기업지원육성 사업으로 지자체에 교부한 예산 현황 (2010~2021)- 서울특별시, 부산광역시, 대구광역시, 인천광역시, 광주광역시, 대전광역시, 울산광역시, 세종특별자치시- 경기도, 강원도, 충청북도, 충청남도, 전라북도, 전라남도, 경상북도, 경상남도, 제주특별자치도</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15066958/fileData.do</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>사회적기업,지자체</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>고용노동부 해외취업 연도별 통계</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>해외취업사업 연도별 통계 자료- 연도,계,일본,미국 ,싱가포르,호주,아랍에미리트,중국,캐나다,베트남,인도네시아,독일,기타</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3076349/fileData.do</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>해외취업,통계,월드자</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>고용노동부_중장년일자리 사업 통계자료</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>중장년일자리 지원을 위한 컨설팅사업 수행행실적의 연도별 통계 자료- 취업인원, 구직인원, 알선상담, 구인개척단, 현장방문단, 전직스쿨프로그램, 생애설계프로그램, 장년인턴취업지원</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068982/fileData.do</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2119</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>중장년,일자리,컨설팅</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>고용노동부_청년구직활동지원금</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>청년구직활동지원금 대상자 관련 정보로, 지원 대상자의 지원금 지급 전-후 구직활동 내용 등에 대한 설문조사 결과를 포함하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15101485/fileData.do</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>청년,구직활동,청년지원금</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>고용노동부_연도별 근로사건 현황</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>연도별 공표되는 근로자 사건 현황근로감독기획과에서 등록한 연도별 신고사건 접수 및 처리현황이 건수와 %(비율)로 나타난 자료입니다.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068752/fileData.do</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>근로사건,사건현황,근로자사건</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>고용노동부_연도별 임금체불현황</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>연도별 공표되는 임금체불현황- 연도,신고건수,신고 근로자수,신고금 액,지도해결 건 수,지도해결 근로자수,지도해결 금액,- 사법처리 건 수,사법처리 근로자수,사법처리 금액,처리중 건 수,처리중 근로자수,처리중 금액- (단위 : 개소, 명, 억원)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068736/fileData.do</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>임금체불,체불현황,임금체불현황</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>고용노동부_성별 지역별 육아휴직급여 수급자수</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>성별, 지역별 육아휴직급여 수급자수에 대한 데이터 통계 요청으로, 월별 지역별, 성별 육아휴직급여 초회 수급자수 데이터를 제공합니다.(2021년 기준)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15100479/fileData.do</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>육아휴직급여,성별</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>고용노동부 지역노동청 현황</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>국민 누구나 원하는 일자리에서 마음껏 역량을 발휘할 수 있도록 더 많은 일자리를 만들고, 더 든든하고 안전한 일터를 조성하기 위해 노력하고 있는 고용노동부의 각 소속 지방고용노동관서 명칭 및 위치, 관할구역이 포함되어 있는 현황데이터입니다.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15029545/fileData.do</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2022-05-13</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2218</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>행정,지방,조직</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>고용노동부_강소기업 선정 현황</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ㅁ 강소기업 일자리 정보에 대한 데이터로 브랜드명,대표자명,사업장명, 소재지,업종의 중소분류,주소의 정보를 제공 ㅇ 유효기간: 금년도 5. 1 ~ 차년도 4. 30 (1년) * 매월 우리부 대표홈페이지에 강소기업 선정 현황을 4월말에 공지함.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15001417/fileData.do</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>강소기업,현장추천형,일자리</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>고용노동부_근로자종합복지관 운영현황</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>매년 공표되는 근로자종합복지관 운영현황으로서2014년이후에는 중앙부처(고용노동부)에 운영에서 지방자치단체에서 운영하고 있음</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15068780/fileData.do</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2021-11-26</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>복지관,근로자종합,운영현황</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>고용노동부_고용노동지표_노동정책</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>고용노동부 홈페이지에서 제공하는 노동정책 데이터 중 노사관계의 노사분규건수, 근로손실일수 나타내주는 e-고용노동지표입니다.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15090652/fileData.do</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>노사관계,노사분규건수,근로손실일수</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>고용노동부_고용노동지표_노동시장</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>고용노동부 홈페이지에서 제공하는 노동시장 고용률, 실업률, 취업자수, 실업자수를 나타내주는 e-고용노동지표입니다.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15090648/fileData.do</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1265</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>고용률,실업률,취업자수</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>고용노동부_고용노동지표_대상별현황(링크)</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>고용노동부에서 공개하는 고용노동지표의 대상별 현황을 URL를 통해 공표- 청년, 여성, 중장년, 장애인, 외국인의 고용률과 실업률, 취업자수,실업자수를 공개</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15090643/fileData.do</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>고용률,실업률,취업자수</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>고용노동부_고용노동지표_일자리사업(링크)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>고용노동부에서 공개하는 고용노동지표의 일자리사업 현황을 URL를 통해 공표- 직업훈련(재직자훈련, 실업자훈련)- 사회적기업(인증사회적기업, 취약계층 고용인원)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15090665/fileData.do</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>일자리사업,직업훈련,사회적기업</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>고용노동부 보유도서 및 간행물 정보</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>고용노동부 발간 도서.간행물 (정보직업안정법 질의회신 모음집)을 제공합니다.- 1994년부터 2018년까지의 주요 질의회신을 모아 통합발간- 모음집에 수록된 질의회신 중 일부는 법률개정 등으로 인해 현 제도와 부합되도록 당시 회신된 내용이나 표현이 일부 수정된 부분도 있음을 알려드립니다.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3049246/fileData.do</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2021-09-10</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>도서관리,보유도서,간행물</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>고용노동부_한권으로 통하는 대한민국 청년지원 프로그램 정보</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>다양한 청년의 여건과 상황에 따라 체계적으로 분류된 청년고용 지원정책에 대한 정보 수록- 한눈에 보는 청년고용 지원정책- 청년 추가고용 장려금- 청년내일채움공제- 청년 구직 활동지원금- 온라인 청년센터</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15033150/fileData.do</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2021-09-10</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>청년취업지원서비스,청년워크넷,해외취업</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>고용노동부_산업안전보건교육 가이드북</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>산업안전보건교육 가이드북- 산업안전보건교육 대상여부 확인 관련- 고용노동부 사칭 교육기관 피해사례 및 예방 방법- 산업안전보건교육 대상별 교육 시간- 산업안전보건교육의 실시방법 및 인정범위, 교육일지 양식- 사업장내 안전보건교육의 강사기준과 외부위탁 가능 여부- 산업안전보건교육시 교육내용 및 교육자료 이용 방법- 산업안전보건교육 Q＆A</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15067434/fileData.do</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2021-09-09</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5703</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>산업안전보건,가이드북,산업안전보건교육</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>고용노동부_블라인드 채용 가이드북 정보</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>기업이 블라인드 채용을 쉽게 이해하고 쉽게 도입하는데 도움을 줄 수 있는 정보 제공</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15033110/fileData.do</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2020-10-05</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2164</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>직무능력,공정채용,구조화면접</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>고용노동부_HRD Book 308종 가격정보</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>HRD Book 308종 가격정보</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/3038227/fileData.do</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>훈련교재,HRD</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>고용노동부_NCS기반 직무숙련임금 연계방안</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>NCS 기반 직무숙련임금 연계방안 (2016.12)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15067436/fileData.do</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2020-09-24</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1514</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>NCS,직무숙련임금,NCS기반</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>고용노동부_우리기업진출 주요 5개국 노무관리 전략 및 각국 노동시장 현황 비교연구</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TTA 등 통상협상을 위한 우리기업 진출 주요 5개국 노무관리 전략 및 각국 노동시장 현황 비교 연구</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15044925/fileData.do</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2020-09-22</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>한국형,듀얼시스템,법제화</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>고용노동부_일가정양립실태조사(2017년)</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2017년 기준으로 작성된 일가정양립실태 보고서입니다. (pdf)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15066060/fileData.do</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2020-09-21</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>일가정,양립,일가정양립</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>고용노동부_고용형태별근로자패널조사</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>비정규직근로자의 근로실태와 고용형태 전환, 노동이동 등에 관한 동태자료를 조사하여 정책 수립시 필요한 기초통계자료로 제공하는 조사</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.data.go.kr/data/15004980/fileData.do</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>고용노동부</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2020-09-15</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2919</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>정규직,비정규직,이동경로</t>
         </is>
       </c>
     </row>
